--- a/hyumini/bus/commute_attend.xlsx
+++ b/hyumini/bus/commute_attend.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="915" yWindow="465" windowWidth="24675" windowHeight="15540" tabRatio="500" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="915" yWindow="465" windowWidth="24675" windowHeight="15540" tabRatio="500" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="부평, 부천" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="7">
   <si>
     <t>세림병원앞 공영주차장</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>송내 타이어랜드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정거장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -394,42 +402,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>0.29166666666666669</v>
+      <c r="A1" t="s">
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0.29722222222222222</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0.3</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>0.3034722222222222</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -442,51 +458,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>0.29166666666666669</v>
+      <c r="A1" t="s">
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0.29722222222222222</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0.3</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>0.3034722222222222</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -498,51 +522,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>0.29166666666666669</v>
+      <c r="A1" t="s">
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0.29722222222222222</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0.3</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>0.3034722222222222</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -554,51 +586,59 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>0.29166666666666669</v>
+      <c r="A1" t="s">
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0.29722222222222222</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0.3</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>0.3034722222222222</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -610,51 +650,59 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>0.29166666666666669</v>
+      <c r="A1" t="s">
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0.29722222222222222</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0.3</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>0.3034722222222222</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -666,51 +714,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>0.29166666666666669</v>
+      <c r="A1" t="s">
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0.29722222222222222</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0.3</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>0.3034722222222222</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -722,51 +778,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>0.29166666666666669</v>
+      <c r="A1" t="s">
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0.29722222222222222</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0.3</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>0.3034722222222222</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -778,51 +842,59 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>0.29166666666666669</v>
+      <c r="A1" t="s">
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0.29722222222222222</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0.3</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>0.3034722222222222</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -834,51 +906,59 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>0.29166666666666669</v>
+      <c r="A1" t="s">
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0.29722222222222222</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0.3</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>0.3034722222222222</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>

--- a/hyumini/bus/commute_attend.xlsx
+++ b/hyumini/bus/commute_attend.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\hyumini\bus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="915" yWindow="465" windowWidth="24675" windowHeight="15540" tabRatio="500" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="915" yWindow="465" windowWidth="24675" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="부평, 부천" sheetId="1" r:id="rId1"/>
@@ -22,12 +17,9 @@
     <sheet name="당산, 목동" sheetId="20" r:id="rId8"/>
     <sheet name="봉천, 신림" sheetId="21" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
   <si>
     <t>세림병원앞 공영주차장</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,14 +55,514 @@
   </si>
   <si>
     <t>정거장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH농협은행 송내동지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH농협은행 심곡동지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소사삼거리 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실로암한의원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동남꽃 버스정류장(한솔도서관)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼미시장 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소래중고등학교 입구 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매화동 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이스APT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백석역 5번출구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마두역 5번출구(KEB하나은행)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정발산역 4번출구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주엽역 8번출구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화역 6번출구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화마을 삼거리입구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공항시장역 4번출구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방화사거리 KB국민은행 건너편 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양천향교역 5번출구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBS공개홀 뒷길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마포고등학교 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강서구청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화곡본동시장 건너편 횡당보도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화곡역 GS25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까치산역 마을버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양강중학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신정네거리역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신트리공원사거리 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고척시장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개봉사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKB기업은행 개봉동지점 건너편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진명학원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광명사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광명교육청 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕수고등학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청담역 2번출구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉은사 삼성1파출소앞 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성역 3번출구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치동 은마APT 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치역 대원빌딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도곡역 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매봉역 SK리더뷰 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남베드로병원 육교아래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남부터미널역 1번출구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교대역 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서초역 5번출구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방배역 세븐일레븐편의점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사당역 14번출구 탐앤탐스 사당역점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명일역교차로 골프존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KB국민은행 굽은다리역지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동서울신협길동지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길동사거리 타이어뱅크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥도날드 돈춘점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍납사거리 KEB하나은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠실4동 우체국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠실5단지 582동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠실 123한의원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석촌동 호정빌딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH농협은행 송파가락지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KB국민은행 가락지점 건너편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문정건영 APT 버스중앙차로정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장지역 버스중앙차로정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태평역 5번출구 횡단보도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모란역 5번출구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야탐 KEB하나은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이매역 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서현역 AK백화점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수내역 롯데백화점 공항버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정자역 4번출구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미금역 8번출구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리역 택시정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽전중고등학교 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK경기주유소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인운전면허시험장 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국전력기술 정문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보정역 택시정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽전사거리 LG베스트샵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수지구청사거리 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성회관 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍덕고교 공항버스 정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서원마을 현대홈타운 공항버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>르노삼성자동차 정비센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광교마을앞 공항버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원광교박물관 공항버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당산역 IBK기업은행앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강서보건소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEB하나은행 등촌파크지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEB하나은행 목동사거리지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국방송통신대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목동 APT 3단지후문 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목동 APT 2단지후문 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목동2단지 상가버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBS방송국 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오목교 청하스포츠타운 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미진스포츠타운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목동 APT 8단지 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목동 APT 10단지 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양천구청앞 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈산초등학교 정문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철산우성APT상가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광명시청 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철산역 택시정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e편한세상APT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우체국사거리 택시정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대APT횡단보도앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원불교 서울회관 횡단보도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상도터널노량진동 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상도동역 1번출구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숭실대역 2번출구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉현초등학교 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동진빌딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울대입구 5번출구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉천역 5번출구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT&amp;G/CU편의점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉림교 가로공원 공중화장실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한은행 관악신사동점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금천경찰서 정문 횡단보도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT구로지사 버스정류장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독산3동 주민센타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조마루감자탕 독산점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사랑공동체교회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한방전주콩나물밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박미삼거리 GS25편의점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석수역 중앙차로 바스정ㄹ장 횡단보도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,7 +662,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -205,7 +697,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -382,26 +874,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -409,7 +901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -417,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>0.29444444444444445</v>
       </c>
@@ -425,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.29722222222222222</v>
       </c>
@@ -433,7 +925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>0.3</v>
       </c>
@@ -441,12 +933,92 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>0.3034722222222222</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -457,16 +1029,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="A10" sqref="A10:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -474,44 +1049,68 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>0.29722222222222222</v>
+        <v>0.28680555555555554</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>0.3</v>
+        <v>0.28958333333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>0.3034722222222222</v>
+        <v>0.29236111111111113</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -521,16 +1120,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -538,44 +1140,156 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.28611111111111115</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.28819444444444448</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
         <v>0.29722222222222222</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0.3</v>
-      </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>0.3034722222222222</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>0.30624999999999997</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -585,16 +1299,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="A17" sqref="A17:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -602,44 +1319,124 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>0.29722222222222222</v>
+        <v>0.29583333333333334</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>0.3</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
         <v>0.3034722222222222</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -649,16 +1446,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -666,44 +1463,140 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>0.28611111111111115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>0.28750000000000003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
         <v>0.29166666666666669</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>0.29444444444444445</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
         <v>0.29722222222222222</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>0.3034722222222222</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>0.32013888888888892</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -713,16 +1606,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -730,44 +1623,76 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>0.29444444444444445</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.29722222222222222</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>0.3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>0.3034722222222222</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -777,16 +1702,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="A15" sqref="A15:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -794,44 +1719,108 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.30069444444444443</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>0.29722222222222222</v>
+        <v>0.30416666666666664</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>0.3</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>0.3034722222222222</v>
+        <v>0.3125</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -841,16 +1830,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -858,44 +1847,172 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>0.29722222222222222</v>
+        <v>0.28680555555555554</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>0.3</v>
+        <v>0.28750000000000003</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>0.3034722222222222</v>
+        <v>0.29097222222222224</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>0.29236111111111113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -905,16 +2022,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -922,44 +2039,172 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>0.29444444444444445</v>
+        <v>0.3</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>0.29722222222222222</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>0.3</v>
+        <v>0.30416666666666664</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>0.3034722222222222</v>
+        <v>0.30555555555555552</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>0.32361111111111113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
